--- a/data/trans_orig/P34B01-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34B01-Provincia-trans_orig.xlsx
@@ -642,7 +642,7 @@
         <v>4.034941765728089</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4.111215353329026</v>
+        <v>4.111215353329027</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.831742094461933</v>
@@ -660,7 +660,7 @@
         <v>4.036741402516967</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>3.947485901144428</v>
+        <v>3.947485901144427</v>
       </c>
     </row>
     <row r="5">
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.661770909596404</v>
+        <v>2.704820468144884</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.722954667964808</v>
+        <v>3.713738681458449</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.842019819600034</v>
+        <v>3.862443885248088</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.486316043883808</v>
+        <v>2.479695747808778</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.685832282749826</v>
+        <v>3.715556241700199</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.578379675838899</v>
+        <v>3.572835649211819</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.715115502422484</v>
+        <v>2.70940135060779</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.816458202671444</v>
+        <v>3.801515585816633</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.782514054080949</v>
+        <v>3.780438473000866</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.491154489615724</v>
+        <v>3.495706877776796</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.358921489769229</v>
+        <v>4.363589551919144</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.352924981341284</v>
+        <v>4.344035960997991</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.190239792958241</v>
+        <v>3.221267919913481</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.335842156770366</v>
+        <v>4.353121993823158</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.972734270926004</v>
+        <v>3.973462337632493</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.246091348714043</v>
+        <v>3.247751119939119</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.280885110355167</v>
+        <v>4.259137779772075</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.096849955110677</v>
+        <v>4.099766966936649</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.76529501952818</v>
+        <v>2.733106254077259</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.000634324413318</v>
+        <v>3.018197316174877</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.047938988284916</v>
+        <v>3.035017831193531</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.514884172832351</v>
+        <v>2.522280753693134</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>2.883059869575251</v>
+        <v>2.902374853664751</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>2.592305407861497</v>
+        <v>2.628749651096268</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.697077125118034</v>
+        <v>2.696149071727545</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>3.033268523440942</v>
+        <v>3.018282648030608</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2.877612940813128</v>
+        <v>2.893107266576195</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.286194051429734</v>
+        <v>3.282137469751876</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.503993271187823</v>
+        <v>3.550852144157882</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.603084070447993</v>
+        <v>3.579583079786713</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.010048802825714</v>
+        <v>3.029545338817105</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.382299619562902</v>
+        <v>3.375872319764509</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.006820757365416</v>
+        <v>2.98898447540618</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>3.046045842610576</v>
+        <v>3.077993032946493</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>3.393021171215185</v>
+        <v>3.380713260902571</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>3.218729847746054</v>
+        <v>3.212319681831383</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.221484711835239</v>
+        <v>2.254584488950124</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.566252949109228</v>
+        <v>3.620171850901043</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.703457665274582</v>
+        <v>2.719272619733996</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.015829825394337</v>
+        <v>3.034350321390762</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.886805429585312</v>
+        <v>3.913215542952775</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.891562146030717</v>
+        <v>2.896246384124084</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.730353553468354</v>
+        <v>2.705248378210523</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>3.835297733781866</v>
+        <v>3.859462795300617</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.903855199394506</v>
+        <v>2.896750290618115</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.863480072894383</v>
+        <v>2.831083346928198</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.273023028021303</v>
+        <v>4.271565729165634</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.37595086040264</v>
+        <v>3.378389191762241</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.625863756247946</v>
+        <v>3.611174190130667</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.560056747543539</v>
+        <v>4.529949443164557</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.474758169592444</v>
+        <v>3.441173033052325</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.161848229080675</v>
+        <v>3.141003863910637</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.290193121923235</v>
+        <v>4.306845424258532</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.341676290187283</v>
+        <v>3.310464770830539</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.982749575326805</v>
+        <v>1.979962412954448</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.425355778933698</v>
+        <v>4.404831705599468</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.652347578126239</v>
+        <v>2.626403159002593</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.476461757625422</v>
+        <v>2.463490758546938</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.778089700202654</v>
+        <v>3.768426059627156</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>2.872762530584565</v>
+        <v>2.877791865669714</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>2.334494212003859</v>
+        <v>2.307682899530176</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>4.150592556806675</v>
+        <v>4.163727649458862</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>2.853944301191259</v>
+        <v>2.839254413216143</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.675606363265406</v>
+        <v>2.644476791795934</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.001245424019239</v>
+        <v>4.99215232166434</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.427653017381231</v>
+        <v>3.418378563874701</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.061493199650906</v>
+        <v>3.073088820929579</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>4.385870689480909</v>
+        <v>4.411218642349144</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.423274816382812</v>
+        <v>3.460900474960046</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.756291358541652</v>
+        <v>2.757864992264755</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>4.593885768779867</v>
+        <v>4.604542830621599</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>3.328035626616616</v>
+        <v>3.341846888084258</v>
       </c>
     </row>
     <row r="16">
@@ -1087,7 +1087,7 @@
         <v>2.6295190012822</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>5.787844760151083</v>
+        <v>5.787844760151082</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>2.669062599347793</v>
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.116979549396473</v>
+        <v>2.094613702426444</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.766506545246283</v>
+        <v>2.773470431604479</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.879183809578285</v>
+        <v>5.889716384178017</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.398676049611588</v>
+        <v>2.40152946556798</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>2.230856075547141</v>
+        <v>2.215715105755033</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.620050860379143</v>
+        <v>5.584389655187597</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.384920708108367</v>
+        <v>2.372079329771181</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.611145753813722</v>
+        <v>2.636729327313614</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>5.799794919454629</v>
+        <v>5.8057410026835</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.032179801433551</v>
+        <v>2.963296376829831</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.544376246046268</v>
+        <v>3.539806944203055</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.294387404868489</v>
+        <v>6.32487184721567</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.186827450896038</v>
+        <v>3.219221495785881</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.975408389270153</v>
+        <v>3.016160849428512</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.945064368648348</v>
+        <v>5.946861693719595</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.981296533546564</v>
+        <v>2.94996008634305</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.17852256365026</v>
+        <v>3.169514786531017</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.06970946135277</v>
+        <v>6.075054644658946</v>
       </c>
     </row>
     <row r="19">
@@ -1187,7 +1187,7 @@
         <v>2.085806189016983</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2.289053647262913</v>
+        <v>2.289053647262914</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>3.216626399689569</v>
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.229001835078564</v>
+        <v>2.255768715247868</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.736424728978405</v>
+        <v>1.732473068150105</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.990139565821825</v>
+        <v>2.005117184986273</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.89370433531793</v>
+        <v>2.882785519485429</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>2.130313571801997</v>
+        <v>2.154319996904205</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>2.126047515167653</v>
+        <v>2.108830806919574</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>2.661902911583006</v>
+        <v>2.667654733605796</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>2.018096525234354</v>
+        <v>2.064771778505993</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>2.139162683039612</v>
+        <v>2.135020080213217</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.919564754324845</v>
+        <v>2.927234666249974</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.433980543622444</v>
+        <v>2.455490951330254</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.607861417549041</v>
+        <v>2.625155719228526</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.525108132639101</v>
+        <v>3.519231991213024</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>2.838189699474476</v>
+        <v>2.818406539687241</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>2.664282172782177</v>
+        <v>2.666091450762111</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>3.139098988004261</v>
+        <v>3.125123063360548</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>2.537163070465509</v>
+        <v>2.566550260500173</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>2.547966539327449</v>
+        <v>2.541005570506496</v>
       </c>
     </row>
     <row r="22">
@@ -1296,7 +1296,7 @@
         <v>3.49633931674569</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4.311039295209104</v>
+        <v>4.311039295209105</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>3.145188396340112</v>
@@ -1305,7 +1305,7 @@
         <v>3.406560372979903</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>3.720677729645756</v>
+        <v>3.720677729645757</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>2.964070011958117</v>
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.539305738538661</v>
+        <v>2.54253226541789</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.250651629424679</v>
+        <v>3.247850735583522</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.041559553211609</v>
+        <v>4.052209447204993</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.927519973542048</v>
+        <v>2.92182366480734</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.18545086336694</v>
+        <v>3.179461343770202</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.511186612742853</v>
+        <v>3.545367742502056</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.820212544550347</v>
+        <v>2.809951597923667</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>3.289574149488968</v>
+        <v>3.283903185983152</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.846574545529593</v>
+        <v>3.849301656412896</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.996910529914858</v>
+        <v>3.006854918239345</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.737885306642865</v>
+        <v>3.755477681234761</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.549454988940272</v>
+        <v>4.536790171935913</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.35559858760505</v>
+        <v>3.350440363416487</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.633999731572789</v>
+        <v>3.619402638548941</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.897973642729718</v>
+        <v>3.934944055669054</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.125727881833219</v>
+        <v>3.127658907937259</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.606996675242841</v>
+        <v>3.626072147830016</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.163441677117114</v>
+        <v>4.159620547904716</v>
       </c>
     </row>
     <row r="25">
@@ -1405,7 +1405,7 @@
         <v>2.406064458507396</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4.535693032469869</v>
+        <v>4.53569303246987</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>2.481903318200199</v>
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.158629163673392</v>
+        <v>2.12809569808769</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.221694890257617</v>
+        <v>2.205749361044985</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4.318585654255252</v>
+        <v>4.336259751161079</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2.276386478361688</v>
+        <v>2.2893114961487</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>1.918554007955161</v>
+        <v>1.940580119174375</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>3.77083965549124</v>
+        <v>3.808427442243469</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>2.289644250929261</v>
+        <v>2.289408665485638</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>2.12819442297195</v>
+        <v>2.123371454516163</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>4.11237146606771</v>
+        <v>4.114706859071498</v>
       </c>
     </row>
     <row r="27">
@@ -1469,31 +1469,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.57027024158732</v>
+        <v>2.558357157395991</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>2.620408831034306</v>
+        <v>2.593918588740555</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4.729319689996237</v>
+        <v>4.720879169131446</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2.677920405752531</v>
+        <v>2.696018347259279</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>2.302751905707686</v>
+        <v>2.309782893079413</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>4.135555617451923</v>
+        <v>4.134441441319472</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>2.571871208061369</v>
+        <v>2.56749626254234</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>2.411820386099634</v>
+        <v>2.385803536828034</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>4.373455827449526</v>
+        <v>4.373098416322014</v>
       </c>
     </row>
     <row r="28">
@@ -1514,7 +1514,7 @@
         <v>3.304591579402637</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3.892127154019211</v>
+        <v>3.89212715401921</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>2.86815746598248</v>
@@ -1532,7 +1532,7 @@
         <v>3.225458970644491</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>3.723655631239114</v>
+        <v>3.723655631239115</v>
       </c>
     </row>
     <row r="29">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.536746588683711</v>
+        <v>2.542443317227256</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.196651999249368</v>
+        <v>3.198129937075746</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.772132013633025</v>
+        <v>3.788618274048198</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.76988299285618</v>
+        <v>2.763948563365407</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.057546396033668</v>
+        <v>3.051946239950124</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>3.481185217592946</v>
+        <v>3.485719079947876</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.676867090790226</v>
+        <v>2.68375808671575</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>3.153348555508419</v>
+        <v>3.155550632134171</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>3.660530090929477</v>
+        <v>3.6565851843438</v>
       </c>
     </row>
     <row r="30">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.7428434647285</v>
+        <v>2.742622059669384</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.407376756124634</v>
+        <v>3.404252389213299</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.990111785971981</v>
+        <v>3.99498219992309</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.963697351204393</v>
+        <v>2.964264481747424</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.250465022228013</v>
+        <v>3.248649706267233</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.654287336600009</v>
+        <v>3.639924422583641</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.82602028082141</v>
+        <v>2.824511466677583</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.297145499379032</v>
+        <v>3.29643193625115</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.792276657307626</v>
+        <v>3.793376775102618</v>
       </c>
     </row>
     <row r="31">
